--- a/src/main/resources/files/테이블목록.xlsx
+++ b/src/main/resources/files/테이블목록.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nkpar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HanaBank\workspace\kakao-online\src\main\resources\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99892953-6A3E-4A01-B18A-DCB090900642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C198A5F-C02A-4400-B6B8-9110914E6DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="225">
   <si>
     <t>Key</t>
   </si>
@@ -607,10 +607,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Y/N ( default:N)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>수신계좌정보</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -724,6 +720,14 @@
   </si>
   <si>
     <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y/N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y/N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1278,15 +1282,15 @@
   <dimension ref="C3:H180"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="A158" sqref="A158"/>
+      <selection activeCell="E182" sqref="E182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="8.88671875" style="1"/>
     <col min="3" max="3" width="6.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="7.44140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="31.21875" style="1" customWidth="1"/>
@@ -1295,7 +1299,7 @@
   <sheetData>
     <row r="3" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C3" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -1305,7 +1309,7 @@
     </row>
     <row r="4" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -1318,13 +1322,13 @@
         <v>0</v>
       </c>
       <c r="D5" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="F5" s="10" t="s">
         <v>222</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>223</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>191</v>
@@ -1520,7 +1524,7 @@
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="7" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.3">
@@ -1530,7 +1534,7 @@
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C17" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1540,7 +1544,7 @@
     </row>
     <row r="18" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C18" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1553,10 +1557,10 @@
         <v>0</v>
       </c>
       <c r="D19" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>221</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>222</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>2</v>
@@ -1720,7 +1724,7 @@
         <v>51</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>44</v>
@@ -1909,7 +1913,7 @@
     </row>
     <row r="40" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C40" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -1922,10 +1926,10 @@
         <v>0</v>
       </c>
       <c r="D41" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="E41" s="10" t="s">
         <v>221</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>222</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>2</v>
@@ -2060,7 +2064,7 @@
     </row>
     <row r="50" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C50" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2073,10 +2077,10 @@
         <v>0</v>
       </c>
       <c r="D51" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="E51" s="10" t="s">
         <v>221</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>222</v>
       </c>
       <c r="F51" s="10" t="s">
         <v>2</v>
@@ -2199,7 +2203,7 @@
         <v>6</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>105</v>
@@ -2217,7 +2221,7 @@
         <v>6</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>106</v>
@@ -2238,7 +2242,7 @@
         <v>107</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>7</v>
@@ -2263,7 +2267,7 @@
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="4" t="s">
-        <v>33</v>
+        <v>223</v>
       </c>
     </row>
     <row r="62" spans="3:8" x14ac:dyDescent="0.3">
@@ -2325,7 +2329,7 @@
         <v>6</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>116</v>
@@ -2355,7 +2359,7 @@
     </row>
     <row r="68" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C68" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -2368,10 +2372,10 @@
         <v>0</v>
       </c>
       <c r="D69" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="E69" s="10" t="s">
         <v>221</v>
-      </c>
-      <c r="E69" s="10" t="s">
-        <v>222</v>
       </c>
       <c r="F69" s="10" t="s">
         <v>2</v>
@@ -2494,7 +2498,7 @@
         <v>6</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>124</v>
@@ -2512,10 +2516,10 @@
         <v>6</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>103</v>
@@ -2533,7 +2537,7 @@
         <v>107</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>7</v>
@@ -2620,7 +2624,7 @@
         <v>6</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>115</v>
@@ -2638,7 +2642,7 @@
         <v>6</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E84" s="6" t="s">
         <v>116</v>
@@ -2668,7 +2672,7 @@
     </row>
     <row r="87" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C87" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -2681,10 +2685,10 @@
         <v>0</v>
       </c>
       <c r="D88" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="E88" s="10" t="s">
         <v>221</v>
-      </c>
-      <c r="E88" s="10" t="s">
-        <v>222</v>
       </c>
       <c r="F88" s="10" t="s">
         <v>2</v>
@@ -2846,7 +2850,7 @@
         <v>51</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>128</v>
@@ -2963,7 +2967,7 @@
     </row>
     <row r="105" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C105" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -2976,10 +2980,10 @@
         <v>0</v>
       </c>
       <c r="D106" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="E106" s="10" t="s">
         <v>221</v>
-      </c>
-      <c r="E106" s="10" t="s">
-        <v>222</v>
       </c>
       <c r="F106" s="10" t="s">
         <v>2</v>
@@ -3114,7 +3118,7 @@
     </row>
     <row r="115" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C115" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -3127,10 +3131,10 @@
         <v>0</v>
       </c>
       <c r="D116" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="E116" s="10" t="s">
         <v>221</v>
-      </c>
-      <c r="E116" s="10" t="s">
-        <v>222</v>
       </c>
       <c r="F116" s="10" t="s">
         <v>2</v>
@@ -3292,7 +3296,7 @@
         <v>162</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F125" s="6" t="s">
         <v>143</v>
@@ -3319,7 +3323,7 @@
     </row>
     <row r="128" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C128" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
@@ -3332,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="D129" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="E129" s="10" t="s">
         <v>221</v>
-      </c>
-      <c r="E129" s="10" t="s">
-        <v>222</v>
       </c>
       <c r="F129" s="10" t="s">
         <v>2</v>
@@ -3497,7 +3501,7 @@
         <v>177</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F138" s="6" t="s">
         <v>146</v>
@@ -3524,7 +3528,7 @@
     </row>
     <row r="141" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C141" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
@@ -3537,10 +3541,10 @@
         <v>0</v>
       </c>
       <c r="D142" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="E142" s="10" t="s">
         <v>221</v>
-      </c>
-      <c r="E142" s="10" t="s">
-        <v>222</v>
       </c>
       <c r="F142" s="10" t="s">
         <v>2</v>
@@ -3702,7 +3706,7 @@
         <v>177</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F151" s="6" t="s">
         <v>146</v>
@@ -3729,7 +3733,7 @@
     </row>
     <row r="154" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C154" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D154" s="8"/>
       <c r="E154" s="8"/>
@@ -3742,10 +3746,10 @@
         <v>0</v>
       </c>
       <c r="D155" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="E155" s="10" t="s">
         <v>221</v>
-      </c>
-      <c r="E155" s="10" t="s">
-        <v>222</v>
       </c>
       <c r="F155" s="10" t="s">
         <v>2</v>
@@ -3907,7 +3911,7 @@
         <v>162</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F164" s="6" t="s">
         <v>143</v>
@@ -3934,7 +3938,7 @@
     </row>
     <row r="167" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C167" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D167" s="8"/>
       <c r="E167" s="8"/>
@@ -3947,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="D168" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="E168" s="10" t="s">
         <v>221</v>
-      </c>
-      <c r="E168" s="10" t="s">
-        <v>222</v>
       </c>
       <c r="F168" s="10" t="s">
         <v>2</v>
@@ -4112,7 +4116,7 @@
         <v>160</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>143</v>
@@ -4127,7 +4131,7 @@
         <v>6</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>163</v>
